--- a/data/psychology-question/trait-question.xlsx
+++ b/data/psychology-question/trait-question.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimyo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13FB5257-C07D-4CC9-9A6D-C24E39926C61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E49BF27F-F64E-44D9-B854-9C7802C219E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11910" yWindow="696" windowWidth="14538" windowHeight="13416" xr2:uid="{AB59C91A-E59D-4478-B3FC-92376F13F568}"/>
+    <workbookView xWindow="9678" yWindow="414" windowWidth="14538" windowHeight="13416" xr2:uid="{AB59C91A-E59D-4478-B3FC-92376F13F568}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="63">
   <si>
     <t>question_type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,162 +54,185 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>대중적인 vs 유니크한</t>
+    <t>5_point_question</t>
+  </si>
+  <si>
+    <t>남들의 주목을 받는 것이 딱히 부담스럽지 않고 개의치 않는다.</t>
+  </si>
+  <si>
+    <t>나는 사람들 앞에 섰을 때, 그들의 마음을 사로잡고 주목받게 만드는 방법을 본능적으로 안다</t>
+  </si>
+  <si>
+    <t xml:space="preserve">처음 보는 사람들이 가득한 모임 장소, 나는? </t>
+  </si>
+  <si>
+    <t>친한 친구여도 선은 필요하다. 나의 사생활과 개인적인 영역을 지키는 것은 무엇보다 중요하다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">나는 사람들에게 관심이 많은 편이다. </t>
+  </si>
+  <si>
+    <t>나는 아이들을 좋아하고 함께 있는 시간이 즐겁다.</t>
+  </si>
+  <si>
+    <t>솔직히 말하면, 남들이 겪는 문제나 하소연에 별로 관심이 안 간다.</t>
+  </si>
+  <si>
+    <t>나는 친해질 때까지 시간이 꽤 걸리는 편이다</t>
+  </si>
+  <si>
+    <t>잡일이 생겼을 때?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">나는 완벽주의가 있는 편이다. </t>
+  </si>
+  <si>
+    <t>결과물이 완벽해질 때까지 끈질기게 붙들고 늘어지는 편이다.</t>
+  </si>
+  <si>
+    <t>종종 물건을 둔 자리를 깜빡하거나 제자리에 두는 것을 잊는다.</t>
+  </si>
+  <si>
+    <t>나는 웬만해서는 우울감에 빠지지 않는다.</t>
+  </si>
+  <si>
+    <t>사소한 일에도 남들보다 쉽게 스트레스를 받는 편이다.</t>
+  </si>
+  <si>
+    <t>하루에도 기분이 좋았다가 나빴다가, 감정의 기복이 잦다</t>
+  </si>
+  <si>
+    <t>나는 불평을 자주 하는 편이다</t>
+  </si>
+  <si>
+    <t>평소 어휘력이 풍부하다는 소리를 듣거나, 다양한 단어 쓰기를 좋아한다</t>
+  </si>
+  <si>
+    <t>익숙하지 않은 복잡한 문제를 해결해야 할 때?</t>
+  </si>
+  <si>
+    <t>복잡하고 속을 알기 어려운 사람은 피하고 싶다</t>
+  </si>
+  <si>
+    <t>인터넷 기사나 전공 서적 등 내용이 너무 어렵고 길다면?</t>
+  </si>
+  <si>
+    <t>물건을 살 때 나만의 독특함을 드러낼 수 있는지가 중요한 목표다</t>
+  </si>
+  <si>
+    <t>남들이 TPO(상황)에 안 맞게 입었다고 눈치를 줘도, 나는 내 스타일대로 입을 것이다.</t>
+  </si>
+  <si>
+    <t>누구나 사는 대중적인 브랜드나 제품은 피하려고 노력한다</t>
+  </si>
+  <si>
+    <t>마음에 드는 영화는 두 번이고 세 번이고 반복해서 다시 보는 것을 즐긴다</t>
+  </si>
+  <si>
+    <t>좋은 향기든 나쁜 냄새든, 남의 체취가 느껴지는 것 자체가 싫다.</t>
+  </si>
+  <si>
+    <t>커피나 에너지 드링크 같은 각성제를 먹으면 몸이 불편해진다.</t>
+  </si>
+  <si>
+    <t>나는 평소 한 번도 먹어보지 못한 낯선 음식 메뉴에 도전하는 것을 즐긴다</t>
+  </si>
+  <si>
+    <t>둘 중 무엇에 더 끌리나요?</t>
+  </si>
+  <si>
+    <t>기회만 된다면 스카이다이빙 같은 익스트림 스포츠를 꼭 해보고 싶다.</t>
+  </si>
+  <si>
+    <t>더 끌리는 사람은?</t>
+  </si>
+  <si>
+    <t>술을 한두 잔 정도 마시면 기분이 정말 좋아진다.</t>
+  </si>
+  <si>
+    <t>남들이 가진 물건이나 풍족한 생활을 별로 부러워하지 않는 편이다</t>
+  </si>
+  <si>
+    <t>충동구매 없이 주로 내게 꼭 필요한 물건 위주로만 산다</t>
+  </si>
+  <si>
+    <t>더 바랄 게 없다. 나는 지금 인생을 즐기는 데 필요한 모든 것을 이미 다 가지고 있다고 생각한다</t>
+  </si>
+  <si>
+    <t>기능이 다가 아니다. 아름답고 훌륭한 디자인은 세상을 더 살기 좋은 곳으로 만든다고 믿는다</t>
+  </si>
+  <si>
+    <t>남들은 그냥 지나치는 디자인의 디테일 차이를 알아채는 눈썰미가 뛰어난 편이다.</t>
+  </si>
+  <si>
+    <t>디자인이 마음이 꽂혀서 홀린듯이 물건을 산 적이 꽤 있다</t>
+  </si>
+  <si>
+    <t>깊은 잠에서 깨어났을 때, 눈앞에 펼쳐지길 바라는 창밖 풍경은?</t>
+  </si>
+  <si>
+    <t>길을 걷다 우연히 마주친 낯선 축제, 그곳의 색감은?</t>
+  </si>
+  <si>
+    <t>누군가 건넨 선물 상자, 손끝에 닿는 포장지의 감촉은?</t>
+  </si>
+  <si>
+    <t>낯선 공간에 들어섰을 때, 코끝을 스치는 향기는?</t>
+  </si>
+  <si>
+    <t>당신의 인생을 영화로 만든다면, 배경 음악의 장르는?</t>
+  </si>
+  <si>
+    <t>책상 위에 단 하나만 놓을 수 있는 오브제는?</t>
+  </si>
+  <si>
+    <t>긴 하루를 마치고 마시는 위로의 한 잔은?</t>
+  </si>
+  <si>
+    <t>2_choice_question</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>강렬한 vs 차분한</t>
+    <t>O_X_question</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>복잡한 vs 심플한</t>
+    <t>4_choice_question</t>
+  </si>
+  <si>
+    <t>4_choice_question</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>물직적 가치 vs 의미적 가치</t>
+    <t>Emotion</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>브랜드가 중요하다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기능성이 중요하다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오락성이 중요하다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>휴식이 중요하다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>환경과 사회에 기여하는 인증이  존재하는 것이 중요하다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>질감 선호: 부드러움 vs 딱딱함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>질감 선호: 거친 vs 매끈함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>광택 선호: 무광 vs 유광</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>색상 선호: 채도 낮은 vs 채도 높은</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>색상 선호: 명도 낮은 vs 명도 높은</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>색상 선호: 한색 vs 난색</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>감성에 대한 선호: 우아함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>감성에 대한 선호: 귀여움</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>감성에 대한 선호: 현대적</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>감성에 대한 선호: 고급스러움</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>감성에 대한 선호: 따뜻함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>감성에 대한 선호: vivid)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>감성에 대한 선호: 날카로움/쿨함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5_point_question</t>
-  </si>
-  <si>
-    <t>Unique</t>
-  </si>
-  <si>
-    <t>Calm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Meaningful_Value</t>
-  </si>
-  <si>
-    <t>Brand</t>
-  </si>
-  <si>
-    <t>Efficiency</t>
-  </si>
-  <si>
-    <t>Entertainment</t>
-  </si>
-  <si>
-    <t>Rest</t>
-  </si>
-  <si>
-    <t>Eco_Cert</t>
-  </si>
-  <si>
-    <t>Texture_Softness</t>
-  </si>
-  <si>
-    <t>Texture_Smoothness</t>
-  </si>
-  <si>
-    <t>Glossiness</t>
-  </si>
-  <si>
-    <t>Color_Saturation</t>
-  </si>
-  <si>
-    <t>Color_Brightness</t>
-  </si>
-  <si>
-    <t>Color_Temperature</t>
-  </si>
-  <si>
-    <t>Pref_Elegant</t>
-  </si>
-  <si>
-    <t>Pref_Cute</t>
-  </si>
-  <si>
-    <t>Pref_Modern</t>
-  </si>
-  <si>
-    <t>Pref_Luxurious</t>
-  </si>
-  <si>
-    <t>Pref_Warm</t>
-  </si>
-  <si>
-    <t>Pref_Vivid</t>
-  </si>
-  <si>
-    <t>Pref_Sharp</t>
-  </si>
-  <si>
-    <t>Simple</t>
+    <t>Openness</t>
+  </si>
+  <si>
+    <t>Extraversion</t>
+  </si>
+  <si>
+    <t>Conscientiousness</t>
+  </si>
+  <si>
+    <t>Neuroticism</t>
+  </si>
+  <si>
+    <t>Agreeableness</t>
+  </si>
+  <si>
+    <t>CVPA</t>
+  </si>
+  <si>
+    <t>MVS</t>
+  </si>
+  <si>
+    <t>CNFU</t>
+  </si>
+  <si>
+    <t>OSL</t>
   </si>
 </sst>
 </file>
@@ -593,10 +616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34E1B684-74B8-4180-BF85-440F080A0F50}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.7"/>
@@ -625,241 +648,483 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" t="s">
         <v>26</v>
       </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
       <c r="C23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A31" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A32" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A34" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A38" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A39" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A40" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A41" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A42" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A43" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A44" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" t="s">
         <v>47</v>
+      </c>
+      <c r="C44" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A45" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
